--- a/manual-testing/Test Cases _ ParaBank.xlsx
+++ b/manual-testing/Test Cases _ ParaBank.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebra\OneDrive\Desktop\para-bank-restful-booker-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebra\OneDrive\Desktop\para-bank-restful-booker-testing\manual-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAD72F-619B-496D-83C0-454AEB42A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57D9BB-ECD9-48DC-8883-2C8806AAD7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{37256061-E2C9-42E7-ACD7-E41E548C7EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37256061-E2C9-42E7-ACD7-E41E548C7EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="6" r:id="rId1"/>
-    <sheet name="Forget login info" sheetId="7" r:id="rId2"/>
-    <sheet name="Open new account" sheetId="4" r:id="rId3"/>
-    <sheet name="Transfare Funds" sheetId="5" r:id="rId4"/>
-    <sheet name="Rejester Page" sheetId="8" r:id="rId5"/>
+    <sheet name="Admin Page" sheetId="9" r:id="rId2"/>
+    <sheet name="Forget login info" sheetId="7" r:id="rId3"/>
+    <sheet name="Open new account" sheetId="4" r:id="rId4"/>
+    <sheet name="Transfare Funds" sheetId="5" r:id="rId5"/>
     <sheet name="Find Transactions" sheetId="2" r:id="rId6"/>
     <sheet name="Update Contact Info" sheetId="3" r:id="rId7"/>
+    <sheet name="Rejester Page" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="860">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -2187,12 +2188,1549 @@
   <si>
     <t>RP15</t>
   </si>
+  <si>
+    <t>RP16</t>
+  </si>
+  <si>
+    <t>RP17</t>
+  </si>
+  <si>
+    <t>RP18</t>
+  </si>
+  <si>
+    <t>RP19</t>
+  </si>
+  <si>
+    <t>RP20</t>
+  </si>
+  <si>
+    <t>RP21</t>
+  </si>
+  <si>
+    <t>RP22</t>
+  </si>
+  <si>
+    <t>RP23</t>
+  </si>
+  <si>
+    <t>RP24</t>
+  </si>
+  <si>
+    <t>RP25</t>
+  </si>
+  <si>
+    <t>RP26</t>
+  </si>
+  <si>
+    <t>RP27</t>
+  </si>
+  <si>
+    <t>RP28</t>
+  </si>
+  <si>
+    <t>RP29</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid first name field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid first name field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave first name field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid last name field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid last name field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave last name field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid address field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid address field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave address field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid city field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid city field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave city field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid state field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid state field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave state field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid zip code field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid zip code field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave zip code field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid phone field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid phone field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave phone field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>RP30</t>
+  </si>
+  <si>
+    <t>RP31</t>
+  </si>
+  <si>
+    <t>RP32</t>
+  </si>
+  <si>
+    <t>RP33</t>
+  </si>
+  <si>
+    <t>RP34</t>
+  </si>
+  <si>
+    <t>RP35</t>
+  </si>
+  <si>
+    <t>RP36</t>
+  </si>
+  <si>
+    <t>RP37</t>
+  </si>
+  <si>
+    <t>RP38</t>
+  </si>
+  <si>
+    <t>RP39</t>
+  </si>
+  <si>
+    <t>RP40</t>
+  </si>
+  <si>
+    <t>RP41</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid SSN field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid SSN field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave SSN field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Verify Username field</t>
+  </si>
+  <si>
+    <t>Valid Username field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid Username field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Username: Valid</t>
+  </si>
+  <si>
+    <t>System accepts the Username field</t>
+  </si>
+  <si>
+    <t>Invalid Username field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid Username field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Username: Invalid</t>
+  </si>
+  <si>
+    <t>System doesn't accept the Username field</t>
+  </si>
+  <si>
+    <t>Username field cannot be blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave Username field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Username: Blank</t>
+  </si>
+  <si>
+    <t>System should not allow the "Username" field to be blank</t>
+  </si>
+  <si>
+    <t>System shows error message indicating that"Username is required."</t>
+  </si>
+  <si>
+    <t>Verify Password field</t>
+  </si>
+  <si>
+    <t>Valid Password field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid Password field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Password: Valid</t>
+  </si>
+  <si>
+    <t>System accepts the Password field</t>
+  </si>
+  <si>
+    <t>Invalid Password field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid Password field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Password: Invalid</t>
+  </si>
+  <si>
+    <t>System doesn't accept the Password field</t>
+  </si>
+  <si>
+    <t>Password field cannot be blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave Password field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Password: Blank</t>
+  </si>
+  <si>
+    <t>System should not allow the "Password" field to be blank</t>
+  </si>
+  <si>
+    <t>System shows error message indicating that"Password is required."</t>
+  </si>
+  <si>
+    <t>Username field doesn't accept numbers and special characters</t>
+  </si>
+  <si>
+    <t>Password field accepts numbers, characters and special characters</t>
+  </si>
+  <si>
+    <t>Password field doesn't accept spaces</t>
+  </si>
+  <si>
+    <t>Username field accepts characters</t>
+  </si>
+  <si>
+    <t>Verify Confirm field</t>
+  </si>
+  <si>
+    <t>Valid Confirm field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid Confirm field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Confirm: Valid</t>
+  </si>
+  <si>
+    <t>Confirm field accepts numbers, characters and special characters</t>
+  </si>
+  <si>
+    <t>System accepts the Confirm field</t>
+  </si>
+  <si>
+    <t>Invalid Confirm field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter invalid Confirm field
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Confirm: Invalid</t>
+  </si>
+  <si>
+    <t>Confirm field doesn't accept spaces</t>
+  </si>
+  <si>
+    <t>System doesn't accept the Confirm field</t>
+  </si>
+  <si>
+    <t>Confirm field cannot be blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Leave Confirm field blank
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>Confirm: Blank</t>
+  </si>
+  <si>
+    <t>System should not allow the "Confirm" field to be blank</t>
+  </si>
+  <si>
+    <t>System shows error message indicating that"Confirm is required."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Confirm field </t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester page
+3-Enter valid Confirm field and it must match the password field 
+4-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter invalid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>First name:Invalid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>System will not create a new account</t>
+  </si>
+  <si>
+    <t>System creates a new account</t>
+  </si>
+  <si>
+    <t>Submit with invalid first name and valid last name, address, city, state, zip code ,  phone number , SSN , Username , password and confirm</t>
+  </si>
+  <si>
+    <t>Submit with valid first name , invalid last valid name, address, city, state, zip code ,  phone number , SSN , Username , password and confirm</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter invalid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:invalid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:invalid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter invalid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>Submit with valid first name , last name invalid address and valid city, state, zip code ,  phone number , SSN , Username , password and confirm</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address,invalid city and valid state, zip code ,  phone number , SSN , Username , password and confirm</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter invalid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:invalid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:invalid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter invalid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>Submit with valid first name , last name, address, city, invalid state and valid zip code ,  phone number , SSN , Username , password and confirm</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address, city, state, invalid zip code and valid  phone number , SSN , Username , password and confirm</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter invalid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:invalid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>RP42</t>
+  </si>
+  <si>
+    <t>RP43</t>
+  </si>
+  <si>
+    <t>RP44</t>
+  </si>
+  <si>
+    <t>RP45</t>
+  </si>
+  <si>
+    <t>System shows an error message indecating that"SSN is invalid"</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:invalid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter invalid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>Submit with valid first name , last name, address, city, state, zip code ,  phone number , invalid SSN and valid Username , password and confirm</t>
+  </si>
+  <si>
+    <t>Submit with valid first name , last name, address, city, state, zip code , invalid  phone number , SSN , invalid Username and valid password , confirm</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter invalid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:invalid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>System shows an error message indecating that"Username is invalid"</t>
+  </si>
+  <si>
+    <t>System shows an error message indecating that"Password is invalid"</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:invalid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter invalid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter not matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>Submit withvalid first name , last name, address, city, state, zip code ,  phone number , SSN , Username , password and not matching confirm</t>
+  </si>
+  <si>
+    <t>Submit withvalid first name , last name, address, city, state, zip code ,  phone number , SSN , Username , invalid password and matching confirm</t>
+  </si>
+  <si>
+    <t>System shows an error message indecating that"Not matching confirm"</t>
+  </si>
+  <si>
+    <t>Submit with valid first name , last name, address, city, state, zip code , phone number , SSN , Username , password and  matching confirm</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to Rejester Page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid phone  number
+10-Enter valid SSN
+11-Enter valid Username
+12-Enter valid Password
+13-Enter matching confirm 
+14-Press Submit</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+Phone:Valid
+SSN:Valid
+Username:Valid
+Password:Valid
+Confirm:Matching</t>
+  </si>
+  <si>
+    <t>System will create a new account</t>
+  </si>
+  <si>
+    <t>System doesn't show any error message</t>
+  </si>
+  <si>
+    <t>System change the selection to the one that I choosed</t>
+  </si>
+  <si>
+    <t>Verify Database Initialize button</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-press initialize button</t>
+  </si>
+  <si>
+    <t>Admin can initialize database using the initialize button</t>
+  </si>
+  <si>
+    <t>Database will be initialized</t>
+  </si>
+  <si>
+    <t>Verify Database Clean button</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-press clean button</t>
+  </si>
+  <si>
+    <t>Database has been initialized</t>
+  </si>
+  <si>
+    <t>Admin can delete database using the clean button</t>
+  </si>
+  <si>
+    <t>Database will be cleaned</t>
+  </si>
+  <si>
+    <t>Database has been cleaned</t>
+  </si>
+  <si>
+    <t>Verify JMS Service status button</t>
+  </si>
+  <si>
+    <t>Admin can shutdown the JMS service using this button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The status will change from running to stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The status changes from running to stopped</t>
+  </si>
+  <si>
+    <t>Admin can startup the JMS service using this button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The status will change from stopped to running </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The status changes from stopped to running </t>
+  </si>
+  <si>
+    <t>AP01</t>
+  </si>
+  <si>
+    <t>AP02</t>
+  </si>
+  <si>
+    <t>AP03</t>
+  </si>
+  <si>
+    <t>AP04</t>
+  </si>
+  <si>
+    <t>AP05</t>
+  </si>
+  <si>
+    <t>AP06</t>
+  </si>
+  <si>
+    <t>AP07</t>
+  </si>
+  <si>
+    <t>AP08</t>
+  </si>
+  <si>
+    <t>AP09</t>
+  </si>
+  <si>
+    <t>AP10</t>
+  </si>
+  <si>
+    <t>AP11</t>
+  </si>
+  <si>
+    <t>AP12</t>
+  </si>
+  <si>
+    <t>AP13</t>
+  </si>
+  <si>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>AP15</t>
+  </si>
+  <si>
+    <t>AP16</t>
+  </si>
+  <si>
+    <t>AP17</t>
+  </si>
+  <si>
+    <t>AP18</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-press status button to stop the service</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-press status button to run the service</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select SOAP or REST (JSON/XML) as the Data Access Mode.
+4-Leave the Endpoint field empty.</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select SOAP or REST (JSON/XML) as the Data Access Mode.
+4-Change the Data Access Mode to REST (XML).</t>
+  </si>
+  <si>
+    <t>Verify that the selected Data Access Mode is saved correctly.</t>
+  </si>
+  <si>
+    <t>The system applies theRest(JSON) as a default Data Access Mode.</t>
+  </si>
+  <si>
+    <t>Default Data Access Mode is selected</t>
+  </si>
+  <si>
+    <t>Change Data Access Mode to REST (XML)</t>
+  </si>
+  <si>
+    <t>Verify Data Access Mode Selection</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select SOAP or REST (JSON/XML) as the Data Access Mode.
+4-Change the Data Access Mode to SOAP.</t>
+  </si>
+  <si>
+    <t>Ensure the mode switches to SOAP</t>
+  </si>
+  <si>
+    <t>System should reflect SOAP as selected mode</t>
+  </si>
+  <si>
+    <t>System reflect SOAP as selected mode</t>
+  </si>
+  <si>
+    <t>Change Data Access Mode to SOAP</t>
+  </si>
+  <si>
+    <t>Change Data Access Mode to JDBC</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Change the Data Access Mode to JDBC.</t>
+  </si>
+  <si>
+    <t>Ensure the mode switches to JDBC</t>
+  </si>
+  <si>
+    <t>System should reflect JDBC as selected mode</t>
+  </si>
+  <si>
+    <t>System reflect JDBC as selected mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify SOAP Endpoint </t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Leave SOAP Endpoint blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOAP Endpoint:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOAP Endpoint use the default one when leaving it blank</t>
+  </si>
+  <si>
+    <t>Valid SOAP Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Enter valid SOAP Endpoint </t>
+  </si>
+  <si>
+    <t>System should accepts the field</t>
+  </si>
+  <si>
+    <t>System should not accepts the field</t>
+  </si>
+  <si>
+    <t>Invalid SOAP Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify REST Endpoint </t>
+  </si>
+  <si>
+    <t>Leave SOAP Endpoint blank to use default endpoint</t>
+  </si>
+  <si>
+    <t>Leave REST Endpoint blank to use default endpoint</t>
+  </si>
+  <si>
+    <t>Valid REST Endpoint</t>
+  </si>
+  <si>
+    <t>Invalid REST Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Enter invalid SOAP Endpoint </t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Leave REST Endpoint blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Enter valid REST Endpoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or REST (JSON/XML) as the Data Access Mode.
+4-Enter invalid REST Endpoint </t>
+  </si>
+  <si>
+    <t>SOAP Endpoint: Valid SOAP Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REST Endpoint:</t>
+  </si>
+  <si>
+    <t>REST Endpoint: Valid REST Endpoint</t>
+  </si>
+  <si>
+    <t>SOAP Endpoint: Invalid SOAP Endpoint</t>
+  </si>
+  <si>
+    <t>REST Endpoint: Invalid REST Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST Endpoint cannot contains Missing Protocol , No WSDL Suffix , Spaces in URL ,Wrong Protocol or Typo or Using REST Format Instead of WSDL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST Endpoint: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid LoanProcessor Service [WSDL] Endpoint must contains A Proper Protocol  , A Domain or IP Address  , A Proper Path to the WSDL File and No Spaces or Special Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOAP Endpoint can contains
+A valid Protocol (http or https) , Valid Domain or IP Address ,  A Valid Path to the SOAP Service , Optional Query Parameters and Correct Port </t>
+  </si>
+  <si>
+    <t>SOAP Endpoint cannot be without 
+A Protocol (http or https) , Valid Domain or IP Address ,  Service Path , The ?wsdl Query Parameter and cannot contains spaces or special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LoanProcessor Service [ WSDL ]Endpoint </t>
+  </si>
+  <si>
+    <t>Leave LoanProcessor Service [ WSDL ]Endpoint blank to use default endpoint</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or LoanProcessor Service [ WSDL ](JSON/XML) as the Data Access Mode.
+4-Leave LoanProcessor Service [ WSDL ]Endpoint blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LoanProcessor Service [ WSDL ]Endpoint:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanProcessor Service [ WSDL ]Endpoint: </t>
+  </si>
+  <si>
+    <t>Valid LoanProcessor Service [ WSDL ]Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or LoanProcessor Service [ WSDL ](JSON/XML) as the Data Access Mode.
+4-Enter valid LoanProcessor Service [ WSDL ]Endpoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Select JDBC or LoanProcessor Service [ WSDL ](JSON/XML) as the Data Access Mode.
+4-Enter invalid LoanProcessor Service [ WSDL ]Endpoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanProcessor Service [ WSDL ]Endpoint: Invalid </t>
+  </si>
+  <si>
+    <t>LoanProcessor Service [ WSDL ]Endpoint: Valid</t>
+  </si>
+  <si>
+    <t>Invalid LoanProcessor Service [WSDL] Endpoint Contains:
+Missing ?wsdl at the end
+Invalid Protocol (ftp://, file://)
+Spaces or Special Characters
+Only a Domain without a Path</t>
+  </si>
+  <si>
+    <t>Invalid LoanProcessor Service [ WSDL ] Endpoint</t>
+  </si>
+  <si>
+    <t>Verify Init. Balance Field</t>
+  </si>
+  <si>
+    <t>Valid Init. Balance</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Enter valid Init. Balance</t>
+  </si>
+  <si>
+    <t>Init. Balance: Valid</t>
+  </si>
+  <si>
+    <t>Valid Init. Balance accepts only numbers</t>
+  </si>
+  <si>
+    <t>Invalid Init. Balance</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Enter invalid Init. Balance</t>
+  </si>
+  <si>
+    <t>Init. Balance: Invalid</t>
+  </si>
+  <si>
+    <t>Init. Balance doesn't accept characters , spaces , special characters</t>
+  </si>
+  <si>
+    <t>System display an error message "Please enter a valid amount."</t>
+  </si>
+  <si>
+    <t>System display an error message indecating that "Please enter a valid amount."</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Leave Init. Balance Blank</t>
+  </si>
+  <si>
+    <t>Init. Balance: Blank</t>
+  </si>
+  <si>
+    <t>Init. Balance cannot be blank</t>
+  </si>
+  <si>
+    <t>System display an error message indecating that "Initial balance is required."</t>
+  </si>
+  <si>
+    <t>System display an error message "Initial balance is required."</t>
+  </si>
+  <si>
+    <t>Verify Min. Balance Field</t>
+  </si>
+  <si>
+    <t>Valid Min. Balance</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Enter valid Min. Balance</t>
+  </si>
+  <si>
+    <t>Min. Balance: Valid</t>
+  </si>
+  <si>
+    <t>Valid Min. Balance accepts only numbers</t>
+  </si>
+  <si>
+    <t>Invalid Min. Balance</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Enter invalid Min. Balance</t>
+  </si>
+  <si>
+    <t>Min. Balance: Invalid</t>
+  </si>
+  <si>
+    <t>Min. Balance doesn't accept characters , spaces , special characters</t>
+  </si>
+  <si>
+    <t>Min. Balance cannot be blank</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Leave Min. Balance Blank</t>
+  </si>
+  <si>
+    <t>Min. Balance: Blank</t>
+  </si>
+  <si>
+    <t>System display an error message indecating that "Minimum balance is required."</t>
+  </si>
+  <si>
+    <t>System display an error message "Minimum balance is required."</t>
+  </si>
+  <si>
+    <t>Verify Threshold Field</t>
+  </si>
+  <si>
+    <t>Valid Threshold</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Enter valid Threshold</t>
+  </si>
+  <si>
+    <t>Threshold: Valid</t>
+  </si>
+  <si>
+    <t>Valid Threshold accepts only numbers</t>
+  </si>
+  <si>
+    <t>Invalid Threshold</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Enter invalid Threshold</t>
+  </si>
+  <si>
+    <t>Threshold: Invalid</t>
+  </si>
+  <si>
+    <t>Threshold doesn't accept characters , spaces , special characters</t>
+  </si>
+  <si>
+    <t>Threshold cannot be blank</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Leave Threshold Blank</t>
+  </si>
+  <si>
+    <t>Threshold: Blank</t>
+  </si>
+  <si>
+    <t>System display an error message indecating that "Please enter a valid number."</t>
+  </si>
+  <si>
+    <t>System display an error message "Please enter a valid number."</t>
+  </si>
+  <si>
+    <t>System display an error message "Threshold is required."</t>
+  </si>
+  <si>
+    <t>System display an error message indecating that "Threshold is required."</t>
+  </si>
+  <si>
+    <t>Verify Loan Provider Selection</t>
+  </si>
+  <si>
+    <t>Loan Provider should only contains (Local , JMS , Web service)</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Check Loan Provider Options</t>
+  </si>
+  <si>
+    <t>Loan Provider Selections only contains (Local , JMS , Web service)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Provider selection leave as default </t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Leave Loan Provider as default</t>
+  </si>
+  <si>
+    <t>Loan Provider: Local</t>
+  </si>
+  <si>
+    <t>Local option will be selected by default</t>
+  </si>
+  <si>
+    <t>Loan Provider selection can switch to JMS</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Choose JMS option</t>
+  </si>
+  <si>
+    <t>Loan Provider: JMS</t>
+  </si>
+  <si>
+    <t>JMS option will be selected
+Local option will be deselected</t>
+  </si>
+  <si>
+    <t>Loan Provider selection can switch to Web Service</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Choose Web Service option</t>
+  </si>
+  <si>
+    <t>Loan Provider: Web Service</t>
+  </si>
+  <si>
+    <t>JMS option will be deselected
+Web Service option will be selected</t>
+  </si>
+  <si>
+    <t>Web Service option will be deselected
+Local option will be selected</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Choose Local option</t>
+  </si>
+  <si>
+    <t>Loan Provider selection can switch to Local</t>
+  </si>
+  <si>
+    <t>Verify Loan Processor Selection</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Check Loan Processor Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Processor selection leave as default </t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Leave Loan Processor as default</t>
+  </si>
+  <si>
+    <t>Loan Processor: Down Payment</t>
+  </si>
+  <si>
+    <t>Down Payment option will be selected by default</t>
+  </si>
+  <si>
+    <t>Loan Processor selection can switch to Down Payment</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Choose Down Payment option</t>
+  </si>
+  <si>
+    <t>Loan Processor selection can switch to Available Funds</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Choose Available Funds option</t>
+  </si>
+  <si>
+    <t>Loan Processor: Available Funds</t>
+  </si>
+  <si>
+    <t>Available Funds option will be selected
+Down Payment option will be deselected</t>
+  </si>
+  <si>
+    <t>Loan Processor should only contains (Down Payment , Available Funds , Combined)</t>
+  </si>
+  <si>
+    <t>Loan Processor Selections only contains (Down Payment , Available Funds , Combined)</t>
+  </si>
+  <si>
+    <t>Loan Processor selection can switch to Combined</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3-Choose Combined option</t>
+  </si>
+  <si>
+    <t>Loan Processor: Combined</t>
+  </si>
+  <si>
+    <t>Available Funds option will be deselected
+Combined option will be selected</t>
+  </si>
+  <si>
+    <t>Combined option will be deselected
+Down Payment option will be selected</t>
+  </si>
+  <si>
+    <t>Verify Submit Button</t>
+  </si>
+  <si>
+    <t>Click Submit (Valid Data)</t>
+  </si>
+  <si>
+    <t>Click Submit (Invalid Data)</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3- Enter valid data in the form.
+4- Click the Submit button.</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Go to admin page
+3- Enter invalid data in the form.
+4- Click the Submit button.</t>
+  </si>
+  <si>
+    <t>The form should be submitted, and a success message should appear.</t>
+  </si>
+  <si>
+    <t>Error messages should appear, and the form should not be submitted.</t>
+  </si>
+  <si>
+    <t>Test SQL Injection on Login Page</t>
+  </si>
+  <si>
+    <t>Enter SQL injection payload in the username field</t>
+  </si>
+  <si>
+    <t>LI06</t>
+  </si>
+  <si>
+    <t>LI07</t>
+  </si>
+  <si>
+    <t>LI08</t>
+  </si>
+  <si>
+    <t>Verify if the login page is vulnerable to SQL injection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Username: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>' OR '1'='1
+Password: any random password</t>
+    </r>
+  </si>
+  <si>
+    <t>System block the user</t>
+  </si>
+  <si>
+    <t>Test SQL Injection on Search Field</t>
+  </si>
+  <si>
+    <t>Verify if the search field is vulnerable to SQL injection</t>
+  </si>
+  <si>
+    <t>System should block the user / Does not do anything</t>
+  </si>
+  <si>
+    <t>System doesn't do any action</t>
+  </si>
+  <si>
+    <t>System should block the user / Does not do any action</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2. Go to Forum page
+3. Enter ' OR '1'='1 in the search field
+4. Click on Search</t>
+  </si>
+  <si>
+    <t>Enter SQL injection payload in search field</t>
+  </si>
+  <si>
+    <t>Test XSS vulnerability in input fields</t>
+  </si>
+  <si>
+    <t>Enter XSS payload in input field</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2-  Go to the Login Page
+3-  Enter&lt;script&gt;alert('XSS')&lt;/script&gt; in the Username field
+4- Enter any random password
+5-  Click on Login</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2-  Go to the Login Page
+3-  Enter  OR '1'='1' in the Username field
+4- Enter any random password
+5-  Click on Login</t>
+  </si>
+  <si>
+    <t>Username: &lt;script&gt;alert('XSS')&lt;/script&gt;
+Password: any random password</t>
+  </si>
+  <si>
+    <t>Check if the application is vulnerable to XSS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search query: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>' OR '1'='1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,6 +3789,43 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans"/>
     </font>
@@ -2315,7 +3890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2364,9 +3939,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2709,184 +4316,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9709CC-42A4-487A-B23F-9A8D5A7B910F}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="9" width="30.77734375" customWidth="1"/>
+    <col min="2" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="6" max="9" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.8">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="222" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="210.6">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="189">
+      <c r="A3" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="210.6">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="168">
+      <c r="A4" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="140.4">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="105">
+      <c r="A5" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="140.4">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="126">
+      <c r="A6" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" t="s">
+      <c r="I6" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="189">
+      <c r="A7" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="147">
+      <c r="A8" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="231">
+      <c r="A9" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="21">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>371</v>
       </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="21">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="21">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2895,11 +4622,1024 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E4206F-F08F-4EC7-B832-B776E62A8827}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="D29" zoomScale="28" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="20" customWidth="1"/>
+    <col min="6" max="7" width="51.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42">
+      <c r="A1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="84">
+      <c r="A2" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="84">
+      <c r="A3" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105">
+      <c r="A4" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="105">
+      <c r="A5" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="126">
+      <c r="A6" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="147">
+      <c r="A7" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="147">
+      <c r="A8" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="147">
+      <c r="A9" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="126">
+      <c r="A10" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="126">
+      <c r="A11" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="126">
+      <c r="A12" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="126">
+      <c r="A13" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="126">
+      <c r="A14" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="126">
+      <c r="A15" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="168">
+      <c r="A16" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="168">
+      <c r="A17" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="168">
+      <c r="A18" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="84">
+      <c r="A19" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="84">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="84">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="84">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="84">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="84">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="84">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="84">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="84">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="84">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="84">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="84">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="84">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="84">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="84">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="84">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="84">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="84">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="84">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="105">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="C40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BDE044-BDBB-46CA-99C0-3FEC862C948C}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="45" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="G1" zoomScale="48" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2938,7 +5678,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="117">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2967,7 +5707,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="117">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="4" t="s">
         <v>402</v>
       </c>
       <c r="B3" s="5"/>
@@ -2994,7 +5734,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="117">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="4" t="s">
         <v>403</v>
       </c>
       <c r="B4" s="5"/>
@@ -3021,7 +5761,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="140.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3050,7 +5790,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="140.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="4" t="s">
         <v>405</v>
       </c>
       <c r="B6" s="5"/>
@@ -3077,7 +5817,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="117">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="4" t="s">
         <v>469</v>
       </c>
       <c r="B7" s="5"/>
@@ -3104,7 +5844,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="117">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="4" t="s">
         <v>470</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3133,7 +5873,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="117">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="4" t="s">
         <v>471</v>
       </c>
       <c r="B9" s="5"/>
@@ -3160,7 +5900,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="117">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="4" t="s">
         <v>472</v>
       </c>
       <c r="B10" s="5"/>
@@ -3187,7 +5927,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="117">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="4" t="s">
         <v>473</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3216,7 +5956,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="117">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="4" t="s">
         <v>474</v>
       </c>
       <c r="B12" s="5"/>
@@ -3243,7 +5983,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="117">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="4" t="s">
         <v>475</v>
       </c>
       <c r="B13" s="5"/>
@@ -3270,7 +6010,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="117">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="4" t="s">
         <v>476</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3299,7 +6039,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="117">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="4" t="s">
         <v>477</v>
       </c>
       <c r="B15" s="5"/>
@@ -3326,7 +6066,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="117">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="4" t="s">
         <v>478</v>
       </c>
       <c r="B16" s="5"/>
@@ -3353,7 +6093,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="117">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="4" t="s">
         <v>479</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3382,7 +6122,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="117">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B18" s="5"/>
@@ -3409,7 +6149,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="117">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="4" t="s">
         <v>481</v>
       </c>
       <c r="B19" s="5"/>
@@ -3436,7 +6176,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="187.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="4" t="s">
         <v>482</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3465,7 +6205,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="187.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="4" t="s">
         <v>483</v>
       </c>
       <c r="B21" s="10"/>
@@ -3492,7 +6232,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="187.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="4" t="s">
         <v>484</v>
       </c>
       <c r="B22" s="10"/>
@@ -3519,7 +6259,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="280.8">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="4" t="s">
         <v>485</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3548,7 +6288,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="280.8">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="4" t="s">
         <v>486</v>
       </c>
       <c r="B24" s="10"/>
@@ -3575,7 +6315,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="280.8">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="4" t="s">
         <v>487</v>
       </c>
       <c r="B25" s="10"/>
@@ -3602,7 +6342,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="280.8">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="4" t="s">
         <v>488</v>
       </c>
       <c r="B26" s="10"/>
@@ -3629,7 +6369,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="280.8">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="4" t="s">
         <v>489</v>
       </c>
       <c r="B27" s="10"/>
@@ -3656,7 +6396,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="280.8">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="4" t="s">
         <v>490</v>
       </c>
       <c r="B28" s="10"/>
@@ -3683,7 +6423,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="280.8">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="4" t="s">
         <v>491</v>
       </c>
       <c r="B29" s="10"/>
@@ -3710,7 +6450,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="280.8">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="4" t="s">
         <v>492</v>
       </c>
       <c r="B30" s="10"/>
@@ -3742,12 +6482,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5AAED4-310D-40B8-9CB3-AAD6BF0862AE}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="63" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" zoomScale="52" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3868,6 +6608,9 @@
       <c r="G4" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
@@ -3991,12 +6734,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C438C8-D500-4E97-95E5-4D0EBC10FD04}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="34" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView zoomScale="49" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4283,7 +7026,9 @@
       <c r="H10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="234">
       <c r="A11" s="6" t="s">
@@ -4308,129 +7053,8 @@
       <c r="H11" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I11" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBAB8CE-C328-4ADA-8484-1476917474F0}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="9" width="55.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.8">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>507</v>
+      <c r="I11" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4443,8 +7067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C7252-4881-48A7-AC44-495FDA326DF3}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C14" zoomScale="72" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4455,7 +7079,7 @@
     <col min="4" max="4" width="49.77734375" customWidth="1"/>
     <col min="5" max="5" width="44.77734375" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="41.109375" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
@@ -4531,9 +7155,15 @@
         <v>374</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="234">
       <c r="A4" s="4" t="s">
@@ -4605,7 +7235,7 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>269</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -4893,8 +7523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D666D422-2C71-47D6-B41B-03F61BC2A996}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView zoomScale="59" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="199.95" customHeight="1"/>
@@ -5742,4 +8372,1291 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBAB8CE-C328-4ADA-8484-1476917474F0}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView topLeftCell="F44" zoomScale="54" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="X46" sqref="X46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="9" width="55.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.8">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="140.4">
+      <c r="A2" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="140.4">
+      <c r="A3" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="140.4">
+      <c r="A4" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140.4">
+      <c r="A5" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="140.4">
+      <c r="A6" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="140.4">
+      <c r="A7" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="140.4">
+      <c r="A8" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="140.4">
+      <c r="A9" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="140.4">
+      <c r="A10" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="140.4">
+      <c r="A11" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="140.4">
+      <c r="A12" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="140.4">
+      <c r="A13" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="140.4">
+      <c r="A14" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="140.4">
+      <c r="A15" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="140.4">
+      <c r="A16" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="140.4">
+      <c r="A17" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="140.4">
+      <c r="A18" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="140.4">
+      <c r="A19" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="140.4">
+      <c r="A20" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="140.4">
+      <c r="A21" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="140.4">
+      <c r="A22" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="140.4">
+      <c r="A23" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="140.4">
+      <c r="A24" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="140.4">
+      <c r="A25" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="140.4">
+      <c r="A26" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="140.4">
+      <c r="A27" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="140.4">
+      <c r="A28" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="140.4">
+      <c r="A29" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="140.4">
+      <c r="A30" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="140.4">
+      <c r="A31" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="140.4">
+      <c r="A32" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="140.4">
+      <c r="A33" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="140.4">
+      <c r="A34" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="175.2" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="391.8" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="399" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="387" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="391.2" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="393" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="385.8" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="393" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="409.6" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="393.6" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="395.4" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/manual-testing/Test Cases _ ParaBank.xlsx
+++ b/manual-testing/Test Cases _ ParaBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebra\OneDrive\Desktop\para-bank-restful-booker-testing\manual-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57D9BB-ECD9-48DC-8883-2C8806AAD7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7406FD8-1200-4011-97DB-6315EA2EB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37256061-E2C9-42E7-ACD7-E41E548C7EED}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{37256061-E2C9-42E7-ACD7-E41E548C7EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Login page" sheetId="6" r:id="rId1"/>
@@ -4318,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9709CC-42A4-487A-B23F-9A8D5A7B910F}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
